--- a/Linguistic Features Paper/dim_redux_results/kbest_all_categories.xlsx
+++ b/Linguistic Features Paper/dim_redux_results/kbest_all_categories.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="29220" yWindow="2880" windowWidth="12945" windowHeight="11865" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="735" yWindow="1905" windowWidth="23580" windowHeight="18945" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taaco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taaled" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taales" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taassc" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taaco" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taaled" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taales" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="taassc" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -207,7 +208,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -242,7 +243,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -428,7 +429,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE4" sqref="AE4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,7 +505,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.07400767689904883</v>
+        <v>-0.07400767689904864</v>
       </c>
     </row>
     <row r="3">
@@ -512,7 +531,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.0895129879358368</v>
+        <v>-0.08951298793583704</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +557,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.05752833826100941</v>
+        <v>-0.05752833826100989</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +584,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.05019256363524312</v>
+        <v>-0.05019256363524403</v>
       </c>
     </row>
     <row r="6">
@@ -592,7 +611,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.09567647676846318</v>
+        <v>-0.09567647676846432</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +638,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.1097996968710802</v>
+        <v>-0.1097996968710811</v>
       </c>
     </row>
     <row r="8">
@@ -647,7 +666,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.06048726680336081</v>
+        <v>-0.06048726680336147</v>
       </c>
     </row>
     <row r="9">
@@ -656,24 +675,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['content_ttr' 'argument_ttr']</t>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
+ 'addition' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ 0.00455574 -0.24837437 -0.05426684  0.10170475  0.01066012]</t>
+          <t>[ 0.02550731 -0.34496443 -0.41129308  0.09903875 -0.01948602]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.0371441218345749</v>
+        <v>-0.1302394955079519</v>
       </c>
     </row>
     <row r="10">
@@ -682,24 +703,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['content_ttr' 'argument_ttr' 'repeated_content_lemmas']</t>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[ 0.00828746 -0.34340768 -0.07112297  0.11778034  0.01803561]</t>
+          <t>[ 0.00259803 -0.28096234 -0.45959188  0.12529587 -0.00824549]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.05408544700282074</v>
+        <v>-0.1241811615854461</v>
       </c>
     </row>
     <row r="11">
@@ -708,24 +731,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['content_ttr' 'adj_ttr' 'argument_ttr' 'repeated_content_lemmas']</t>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'negative_logical'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[ 0.02497799 -0.42823587 -0.05592835  0.11672506  0.03538438]</t>
+          <t>[ 0.01169908 -0.23988918 -0.50266587  0.0759381  -0.0967324 ]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.06141535785436551</v>
+        <v>-0.1503300543417976</v>
       </c>
     </row>
     <row r="12">
@@ -734,25 +759,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
- 'repeated_content_lemmas']</t>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'determiners' 'negative_logical'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[ 0.00853865 -0.4188168  -0.05133381  0.12199708  0.03643816]</t>
+          <t>[ 0.00238337 -0.22871018 -0.739316    0.07751507 -0.11507153]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.06063534574142706</v>
+        <v>-0.2006398564169559</v>
       </c>
     </row>
     <row r="13">
@@ -761,25 +787,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
- 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'opposition' 'determiners'
+ 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[ 0.00836347 -0.43132093 -0.05482626  0.12246294  0.03639705]</t>
+          <t>[-0.02339625 -0.34210923 -0.71648794  0.09018566 -0.10322967]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.06378474530043135</v>
+        <v>-0.219007485492759</v>
       </c>
     </row>
     <row r="14">
@@ -788,25 +816,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr' 'addition'
- 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[ 0.00924788 -0.42817437 -0.05930751  0.12390667  0.0373023 ]</t>
+          <t>[-0.04742143 -0.35184784 -0.74724855  0.08489448 -0.10324591]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.06340500449571163</v>
+        <v>-0.2329738487317195</v>
       </c>
     </row>
     <row r="15">
@@ -815,826 +845,976 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'negative_logical' 'pronoun_density'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[-0.04989806 -0.35858298 -0.74623585  0.07936515 -0.11220548]</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.2375114431182034</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'all_demonstratives' 'negative_logical' 'pronoun_density'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[-0.05011924 -0.4637695  -0.74174542  0.07285227 -0.11997791]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.2605519606622311</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'all_demonstratives' 'negative_logical' 'pronoun_density'
+ 'pronoun_noun_ratio' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[-0.00218739 -1.68801457 -0.68307125 -0.06579269 -0.08717336]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.5052478535340639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['content_ttr' 'argument_ttr']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[ 0.00383403 -0.42983777 -0.04319166  0.14419434 -0.03696612]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.07239343696085158</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['content_ttr' 'argument_ttr' 'repeated_content_lemmas']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[ 0.03556636 -0.45486572 -0.10369091  0.13452897 -0.02976292]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.08364484249018307</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['content_ttr' 'adj_ttr' 'argument_ttr' 'repeated_content_lemmas']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[ 0.0724253  -0.4179668  -0.04703259  0.13162054  0.00183211]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.05182428881160488</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
+ 'repeated_content_lemmas']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[-0.00730913 -0.35839467 -0.04106492  0.1563234   0.01516912]</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.04705523992140672</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[-0.0030526  -0.45257706 -0.053591    0.17684229  0.01100342]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.06427499080897339</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr' 'addition'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[ 0.00461332 -0.27431055 -0.38290026  0.1731479   0.04948372]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.0859931753280911</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>8</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr' 'addition'
  'negative_logical' 'repeated_content_lemmas'
  'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[ 0.00936909 -0.42774905 -0.0589246   0.12385959  0.03735544]</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.06321790718566993</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[ 0.03591219 -0.15289222 -0.26060689  0.11296673  0.05562078]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.04179988093617557</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
+ 'addition' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[ 0.03182292 -0.25809307 -0.34071518  0.11255734  0.03518348]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.08384890123211367</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[ 0.02213273 -0.21781214 -0.32630529  0.1244505   0.02072942]</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.07536095423031801</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'negative_logical'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[ 0.03074439 -0.18379833 -0.40321947  0.08306893 -0.04055315]</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1027515262286652</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'determiners' 'negative_logical'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[ 0.02977872 -0.18631105 -0.51476675  0.08253684 -0.05583989]</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.128920425818797</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'opposition' 'determiners'
+ 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[ 0.00761535 -0.2835091  -0.49562899  0.09277521 -0.04770334]</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.1452901746277134</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[-0.0209335  -0.28057371 -0.49585716  0.08942099 -0.04795166]</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.151179008045613</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'negative_logical' 'pronoun_density'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[-0.01876861 -0.30385722 -0.50145435  0.09074455 -0.04803167]</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1562734592883294</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>16</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'all_demonstratives' 'negative_logical' 'pronoun_density'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[-0.02025961 -0.41578462 -0.49418543  0.08517911 -0.05259962]</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1795300331244181</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'all_demonstratives' 'negative_logical' 'pronoun_density'
+ 'pronoun_noun_ratio' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[ 0.00900867 -1.14591869 -0.40124118 -0.0149353  -0.0322392 ]</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.317065138778624</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>['content_ttr' 'argument_ttr']</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.07584214371795736</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>3</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>['content_ttr' 'argument_ttr' 'repeated_content_lemmas']</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.07584214371795736</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>4</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>['content_ttr' 'adj_ttr' 'argument_ttr' 'repeated_content_lemmas']</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.07584214371795736</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
  'repeated_content_lemmas']</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.07584214371795736</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>6</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
  'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.07584214371795736</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>7</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr' 'addition'
  'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.07584214371795736</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>8</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>['content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr' 'addition'
  'negative_logical' 'repeated_content_lemmas'
  'repeated_content_and_pronoun_lemmas']</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.07584214371795736</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>model_type</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>n_features</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>feature_names</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>all_cv_scores</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>cross_val_avg</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ncontent_tokens']</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[-0.07673057 -0.57298294 -0.19755545  0.11500683  0.0244455 ]</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>-0.1415633251088964</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ncontent_tokens' 'basic_ncontent_types']</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[-0.06867666 -0.53260993 -0.1806774   0.12185013 -0.02672078]</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>-0.1373669290033266</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types']</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[-0.09295567 -0.5332263  -0.24283743  0.12147706 -0.03484004]</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.1564764778432315</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'lexical_density_types']</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[-0.20944992 -0.70055413 -0.20002004  0.13271353 -0.0338491 ]</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.202231933021764</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>6</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'lexical_density_types' 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>[-0.20945506 -0.78079743 -0.22188209  0.1336132  -0.03841675]</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>-0.2233876276497085</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>7</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
- 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>[-0.20945506 -0.78079743 -0.22188209  0.1336132  -0.03841675]</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>-0.2233876276497092</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>linear</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>8</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
- 'lexical_density_tokens' 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>[-0.20313772 -0.97059641 -0.20788394 -0.01914296 -0.03510149]</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>-0.2871725050606322</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ncontent_tokens']</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>[-0.07673059 -0.57298162 -0.19755448  0.11500668  0.02444547]</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>-0.1415629063715228</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>3</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ncontent_tokens' 'basic_ncontent_types']</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>[-0.06867689 -0.53260944 -0.18067648  0.12184942 -0.02671951]</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.1373665806355399</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types']</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>[-0.0929338  -0.53322304 -0.24279605  0.12147791 -0.03482934]</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.1564608641436689</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'adj_ttr' 'argument_ttr'
+ 'addition' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>5</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'lexical_density_types']</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[-0.09988185 -0.54291265 -0.23729609  0.12539851 -0.03473404]</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.1578852242386264</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>6</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'lexical_density_types' 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[-0.10257582 -0.5424317  -0.23957749  0.12621815 -0.03457386]</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.1585881432444711</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'negative_logical'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
- 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[-0.10257676 -0.54243195 -0.23957759  0.12621827 -0.03457402]</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.1585884097381721</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'determiners' 'negative_logical'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>8</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
- 'lexical_density_tokens' 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[-0.10484502 -0.57030285 -0.23327636  0.12519008 -0.03391714]</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.1634302581443461</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'content_ttr' 'function_ttr' 'noun_ttr' 'adj_ttr'
+ 'argument_ttr' 'addition' 'order' 'opposition' 'determiners'
+ 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>2</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ncontent_tokens']</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[-0.06951918 -0.37410416 -0.08019345  0.07224183  0.01066491]</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.08818201209067156</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'negative_logical' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ncontent_tokens' 'basic_ncontent_types']</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[-0.06951918 -0.37410416 -0.08019345  0.07224183  0.01066491]</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.08818201209067156</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'negative_logical' 'pronoun_density'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types']</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[-0.06951918 -0.37410416 -0.08019345  0.07224183  0.01066491]</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.08818201209067156</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'all_demonstratives' 'negative_logical' 'pronoun_density'
+ 'repeated_content_lemmas' 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>5</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'lexical_density_types']</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[-0.06951918 -0.37410416 -0.08019345  0.07224183  0.01066491]</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.08818201209067156</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>6</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'lexical_density_types' 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[-0.06951918 -0.37410416 -0.08019345  0.07224183  0.01066491]</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.08818201209067156</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>7</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
- 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[-0.06951918 -0.37410416 -0.08019345  0.07224183  0.01066491]</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.08818201209067156</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>8</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
- 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
- 'lexical_density_tokens' 'simple_ttr_aw']</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[-0.06951918 -0.37410416 -0.08019345  0.07224183  0.01066491]</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.08818201209067156</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['lemma_ttr' 'lexical_density_types' 'content_ttr' 'function_ttr'
+ 'noun_ttr' 'adj_ttr' 'argument_ttr' 'addition' 'order' 'opposition'
+ 'determiners' 'all_demonstratives' 'negative_logical' 'pronoun_density'
+ 'pronoun_noun_ratio' 'repeated_content_lemmas'
+ 'repeated_content_and_pronoun_lemmas']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.07584214371795736</v>
       </c>
     </row>
   </sheetData>
@@ -1648,7 +1828,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,16 +1877,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ncontent_tokens']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[ 0.04261683 -0.22700762 -0.10989539 -0.07412486  0.10721663]</t>
+          <t>[-0.07673057 -0.57298294 -0.19755545  0.11500683  0.0244455 ]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.05223888181839779</v>
+        <v>-0.1415633251088961</v>
       </c>
     </row>
     <row r="3">
@@ -1723,17 +1903,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Frequency_Log_CW'
- 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ncontent_tokens' 'basic_ncontent_types']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[ 0.04103213 -0.52556898 -0.17549487 -0.09287737  0.10685826]</t>
+          <t>[-0.06867666 -0.53260993 -0.1806774   0.12185013 -0.02672078]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.1292101653124723</v>
+        <v>-0.1373669290033263</v>
       </c>
     </row>
     <row r="4">
@@ -1750,17 +1929,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[ 0.03861071 -0.55037166 -0.22176448 -0.09388738  0.1073264 ]</t>
+          <t>[-0.09295567 -0.5332263  -0.24283743  0.12147706 -0.03484004]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.1440172792114985</v>
+        <v>-0.1564764778432315</v>
       </c>
     </row>
     <row r="5">
@@ -1777,18 +1956,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k'
- 'COCA_academic_bi_prop_30k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'lexical_density_types']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[ 0.03642766 -0.64626207 -0.23105468 -0.1668892   0.09426239]</t>
+          <t>[-0.20944992 -0.70055413 -0.20002004  0.13271353 -0.0338491 ]</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.1827031770438474</v>
+        <v>-0.2022319330217627</v>
       </c>
     </row>
     <row r="6">
@@ -1805,18 +1983,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'lexical_density_types' 'simple_ttr_aw']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[ 0.0019513  -0.62305081 -0.27237103 -0.16090025  0.09185298]</t>
+          <t>[-0.20945506 -0.78079743 -0.22188209  0.1336132  -0.03841675]</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.1925035631924436</v>
+        <v>-0.2233876276497075</v>
       </c>
     </row>
     <row r="7">
@@ -1833,19 +2010,18 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k' 'Sem_D']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'simple_ttr_aw']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[-5.07369275e-04 -5.49796181e-01 -3.64933472e-01 -1.47731052e-01
-  8.50947244e-02]</t>
+          <t>[-0.20945506 -0.78079743 -0.22188209  0.1336132  -0.03841675]</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.1955746700427538</v>
+        <v>-0.2233876276497076</v>
       </c>
     </row>
     <row r="8">
@@ -1862,19 +2038,18 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
- 'COCA_academic_bi_prop_90k' 'Sem_D']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[-0.00226442 -0.6256787  -0.37579963 -0.29126645  0.05157603]</t>
+          <t>[-0.20313772 -0.97059641 -0.20788394 -0.01914296 -0.03510149]</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.2486866354263542</v>
+        <v>-0.2871725050606396</v>
       </c>
     </row>
     <row r="9">
@@ -1883,24 +2058,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'log_ttr_aw']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ 0.04157283 -0.18632067 -0.09548338 -0.02482146  0.06972222]</t>
+          <t>[-0.23191236 -0.86660311 -0.07508111  0.03221243 -0.01275955]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.03906609289802228</v>
+        <v>-0.2308287405925415</v>
       </c>
     </row>
     <row r="10">
@@ -1909,25 +2086,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Frequency_Log_CW'
- 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[ 0.04146551 -0.24174499 -0.10939942 -0.01839091  0.07360693]</t>
+          <t>[-0.23418722 -0.89520203 -0.09347146  0.03098685 -0.0383117 ]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.05089257410678585</v>
+        <v>-0.2460371115730144</v>
       </c>
     </row>
     <row r="11">
@@ -1936,25 +2114,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw'
+ 'hdd42_aw']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[ 0.03934742 -0.25061211 -0.10660989 -0.03166071  0.07884016]</t>
+          <t>[-0.19289114 -0.78873926 -0.13146984  0.00662484 -0.01455804]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.05413902659852601</v>
+        <v>-0.2242066895796357</v>
       </c>
     </row>
     <row r="12">
@@ -1963,26 +2143,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k'
- 'COCA_academic_bi_prop_30k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw'
+ 'hdd42_aw' 'mtld_ma_wrap_aw']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[ 0.03881262 -0.24622827 -0.10816982 -0.03289113  0.08154583]</t>
+          <t>[-0.19267786 -0.80412363 -0.1483318  -0.00869088 -0.01618161]</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>-0.05338615276129608</v>
+        <v>-0.2340011562657687</v>
       </c>
     </row>
     <row r="13">
@@ -1991,26 +2172,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_ma_wrap_aw']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[ 0.04016319 -0.24534933 -0.10743916 -0.03680788  0.08335488]</t>
+          <t>[-0.19267786 -0.80412363 -0.1483318  -0.00869088 -0.01618161]</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>-0.05321565838278843</v>
+        <v>-0.2340011562657686</v>
       </c>
     </row>
     <row r="14">
@@ -2019,26 +2201,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k' 'Sem_D']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[ 0.04069171 -0.26253153 -0.12137823 -0.03365639  0.08525455]</t>
+          <t>[-0.19004272 -0.77470426 -0.16204636 -0.11479118 -0.02129355]</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>-0.05832397898059427</v>
+        <v>-0.2525756150875947</v>
       </c>
     </row>
     <row r="15">
@@ -2047,27 +2230,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
- 'COCA_academic_bi_prop_90k' 'Sem_D']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_original_aw' 'mtld_ma_bi_aw'
+ 'mtld_ma_wrap_aw']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[ 0.04097037 -0.2653404  -0.11991054 -0.04602089  0.08436311]</t>
+          <t>[-0.18784615 -0.84309038 -0.15505457 -0.11251826 -0.05333793]</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>-0.06118766851585127</v>
+        <v>-0.2703694565463414</v>
       </c>
     </row>
     <row r="16">
@@ -2076,24 +2260,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'msttr50_aw' 'hdd42_aw' 'mtld_original_aw'
+ 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+          <t>[-0.1944733  -0.99002008 -0.15727249 -0.11371509 -0.05293347]</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>-0.07584214371795736</v>
+        <v>-0.3016828882326814</v>
       </c>
     </row>
     <row r="17">
@@ -2102,25 +2290,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Frequency_Log_CW'
- 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'mattr50_aw' 'msttr50_aw' 'hdd42_aw'
+ 'mtld_original_aw' 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+          <t>[-0.21304389 -1.1539957  -0.14333483 -0.11104033 -0.05164168]</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>-0.07584214371795736</v>
+        <v>-0.3346112872298328</v>
       </c>
     </row>
     <row r="18">
@@ -2129,25 +2320,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+          <t>['basic_ntokens' 'basic_ncontent_tokens']</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+          <t>[-0.075328   -0.53519275 -0.17035744  0.11151613  0.02396595]</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>-0.07584214371795736</v>
+        <v>-0.1290792224358058</v>
       </c>
     </row>
     <row r="19">
@@ -2156,26 +2346,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k'
- 'COCA_academic_bi_prop_30k']</t>
+          <t>['basic_ntokens' 'basic_ncontent_tokens' 'basic_ncontent_types']</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+          <t>[-0.06995631 -0.50454932 -0.15451259  0.11130582 -0.01631704]</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>-0.07584214371795736</v>
+        <v>-0.1268058881132612</v>
       </c>
     </row>
     <row r="20">
@@ -2184,26 +2372,25 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types']</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+          <t>[-0.06773806 -0.50870875 -0.17791773  0.11443545 -0.01476371]</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>-0.07584214371795736</v>
+        <v>-0.1309385601907709</v>
       </c>
     </row>
     <row r="21">
@@ -2212,26 +2399,25 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k' 'Sem_D']</t>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'lexical_density_types']</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+          <t>[-0.13002237 -0.65302933 -0.19061304  0.12887205 -0.02853868]</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>-0.07584214371795736</v>
+        <v>-0.1746662700746473</v>
       </c>
     </row>
     <row r="22">
@@ -2240,26 +2426,793 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>lasso</t>
+          <t>ridge</t>
         </is>
       </c>
       <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'lexical_density_types' 'simple_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[-0.1505393  -0.66044882 -0.19324924  0.1299934  -0.03343504]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1815358004330809</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'simple_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[-0.18373366 -0.66579038 -0.19302055  0.12464105 -0.03610899]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1908025066782387</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>8</v>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
- 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
- 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
- 'COCA_academic_bi_prop_90k' 'Sem_D']</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[-0.17468839 -0.87517901 -0.17265365  0.05959441 -0.03216574]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.2390184747202939</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'log_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[-0.16858984 -0.82811097 -0.15899874  0.06002143 -0.02762735]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.224661094649252</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[-0.16884089 -0.82866433 -0.16306026  0.05843094 -0.02958046]</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.2263430012801545</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw'
+ 'hdd42_aw']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[-0.13191181 -0.76935596 -0.16127661  0.06436115 -0.01390423]</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.2024174933111694</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw'
+ 'hdd42_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[-0.12929775 -0.71582723 -0.18204991  0.04925019 -0.00603305]</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1967915477141498</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[-0.14390081 -0.74251348 -0.22876743  0.05001677 -0.00862869]</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.2147587276118797</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[-0.14080547 -0.72522145 -0.23253201 -0.00779111 -0.01148386]</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.223566781159611</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_original_aw' 'mtld_ma_bi_aw'
+ 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[-0.1416498  -0.77493893 -0.22808809 -0.00626157 -0.03129092]</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.2364458634944118</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>16</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'msttr50_aw' 'hdd42_aw' 'mtld_original_aw'
+ 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[-0.14173733 -1.01767205 -0.22371064 -0.00432452 -0.03002698]</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.2834943045999915</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'mattr50_aw' 'msttr50_aw' 'hdd42_aw'
+ 'mtld_original_aw' 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[-0.15587986 -1.07596251 -0.20568517  0.01063444 -0.02218184]</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.2898149894385732</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ncontent_tokens']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ncontent_tokens' 'basic_ncontent_types']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'lexical_density_types']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'lexical_density_types' 'simple_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'simple_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'log_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw'
+ 'hdd42_aw']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'lexical_density_types'
+ 'lexical_density_tokens' 'simple_ttr_aw' 'root_ttr_aw' 'log_ttr_aw'
+ 'hdd42_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'hdd42_aw' 'mtld_original_aw' 'mtld_ma_bi_aw'
+ 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'msttr50_aw' 'hdd42_aw' 'mtld_original_aw'
+ 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>17</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['basic_ntokens' 'basic_ntypes' 'basic_ncontent_tokens'
+ 'basic_ncontent_types' 'basic_nfunction_tokens' 'basic_nfunction_types'
+ 'lexical_density_types' 'lexical_density_tokens' 'simple_ttr_aw'
+ 'root_ttr_aw' 'log_ttr_aw' 'mattr50_aw' 'msttr50_aw' 'hdd42_aw'
+ 'mtld_original_aw' 'mtld_ma_bi_aw' 'mtld_ma_wrap_aw']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
         <v>-0.07584214371795736</v>
       </c>
     </row>
@@ -2274,7 +3227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2323,16 +3276,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type']</t>
+          <t>['COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[ 0.03536338 -0.46093699 -0.07605985 -0.02084458 -0.03704305]</t>
+          <t>[ 0.04261683 -0.22700762 -0.10989539 -0.07412486  0.10721663]</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.1119042172299723</v>
+        <v>-0.05223888181839753</v>
       </c>
     </row>
     <row r="3">
@@ -2349,17 +3302,17 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type'
- 'all_av_lemma_freq_type']</t>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_20k']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[ 0.02648387 -0.65548138 -0.28192148  0.03915236 -0.02459906]</t>
+          <t>[ 0.04103213 -0.52556898 -0.17549487 -0.09287737  0.10685826]</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.1792731376943876</v>
+        <v>-0.1292101653124719</v>
       </c>
     </row>
     <row r="4">
@@ -2376,17 +3329,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>['news_av_lemma_freq_type' 'mag_av_lemma_freq_type'
- 'fic_av_lemma_freq_type' 'all_av_lemma_freq_type']</t>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[-0.00533754 -0.74281815 -0.21666715  0.04378948  0.01654537]</t>
+          <t>[ 0.03861071 -0.55037166 -0.22176448 -0.09388738  0.1073264 ]</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>-0.1808975971254699</v>
+        <v>-0.1440172792114979</v>
       </c>
     </row>
     <row r="5">
@@ -2403,6 +3356,1475 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k']</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[ 0.03642766 -0.64626207 -0.23105468 -0.1668892   0.09426239]</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.1827031770438477</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k']</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>[ 0.0019513  -0.62305081 -0.27237103 -0.16090025  0.09185298]</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.1925035631924436</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>7</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k' 'Sem_D']</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[-5.07369275e-04 -5.49796181e-01 -3.64933472e-01 -1.47731052e-01
+  8.50947244e-02]</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.1955746700427552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>8</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D']</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>[-0.00226442 -0.6256787  -0.37579963 -0.29126645  0.05157603]</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.2486866354263547</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>[-0.06934739 -0.94951271 -0.33458349 -0.26620927  0.06223589]</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.3114833959138675</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>[-0.05945296 -0.8633385  -0.58985126 -0.2384613   0.07602658]</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.3350154892825237</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>[-0.06167542 -0.84869403 -0.69913573 -0.25761109 -0.0638294 ]</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>-0.3861891339853575</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[-0.05458303 -0.81140915 -0.87445623 -0.28778094 -0.05703651]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.4170531733853448</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[-0.06399625 -0.76771425 -0.90247824 -0.31354196 -0.05126454]</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.4197990495959605</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW'
+ 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[-0.21712277 -0.67167185 -0.77797787 -0.2390364  -0.01575417]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.3843126123645191</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_80k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[-0.18234934 -1.04412136 -0.61994255 -0.18283548 -0.00254606]</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.4063589582901234</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_40k' 'COCA_academic_bi_prop_80k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW'
+ 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[-0.16794248 -1.19819762 -0.75398629 -0.12588193  0.01712167]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.4457773308456209</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_40k' 'COCA_academic_bi_prop_60k'
+ 'COCA_academic_bi_prop_80k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[-0.17905597 -1.46517642 -0.73545257 -0.19589453  0.02003545]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.5111088067104774</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[ 0.04269572 -0.22525987 -0.10948173 -0.07325293  0.10671631]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.0517164984017715</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_20k']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[ 0.04118875 -0.51517071 -0.17342791 -0.08788254  0.10666501]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.1257254794931554</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[ 0.03901555 -0.53355428 -0.20377532 -0.09089437  0.10697393]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.136446899649066</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>5</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k']</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[ 0.03646517 -0.58755669 -0.21116469 -0.13081672  0.09835023]</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.1589445402591084</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>6</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k']</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[ 0.00996354 -0.58226636 -0.23977033 -0.1325569   0.09377174]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1701716611558819</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>7</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k' 'Sem_D']</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[ 0.00851389 -0.53439518 -0.30189221 -0.12552861  0.08931747]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.172796926985586</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D']</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[ 0.00808215 -0.62280289 -0.30311171 -0.21936222  0.05815553]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.2158078304903654</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[-0.0291847  -0.84051047 -0.27263822 -0.19865701  0.06233036]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.2557320063580039</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[-0.03579826 -0.78858079 -0.36121247 -0.17562617  0.0757491 ]</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.2570937169826395</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[-0.03641038 -0.76511878 -0.40793548 -0.19358669 -0.03023372]</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.286657011088265</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[-0.0317828  -0.74560832 -0.46491706 -0.20044242 -0.0255557 ]</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.2936612618737278</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[-0.0347675  -0.68980616 -0.54282692 -0.21877799 -0.01610611]</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.3004569352313904</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>14</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW'
+ 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[-0.0382731  -0.67119351 -0.54843398 -0.20049709  0.00215843]</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.291247847582033</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_80k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[-0.02812795 -0.64780153 -0.50771394 -0.16722046  0.00119216]</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.2699343447766323</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>16</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_40k' 'COCA_academic_bi_prop_80k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW'
+ 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[-0.01240634 -0.76822834 -0.5008955  -0.1213569   0.01469892]</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.2776376310121044</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_40k' 'COCA_academic_bi_prop_60k'
+ 'COCA_academic_bi_prop_80k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[-0.02285595 -0.89564001 -0.48852191 -0.1452456   0.01302142]</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.3078484089734208</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_20k']</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k']</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>5</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k']</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>6</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k']</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>7</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k' 'Sem_D']</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>8</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D']</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Frequency_Log_AW' 'COCA_Academic_Range_CW'
+ 'COCA_Academic_Range_Log_CW' 'COCA_Academic_Frequency_Log_CW'
+ 'COCA_academic_bi_prop_10k' 'COCA_academic_bi_prop_20k'
+ 'COCA_academic_bi_prop_30k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW'
+ 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_80k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_40k' 'COCA_academic_bi_prop_80k'
+ 'COCA_academic_bi_prop_90k' 'Sem_D' 'Sem_D_CW'
+ 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>17</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['BNC_Written_Freq_CW_Log' 'COCA_Academic_Range_AW'
+ 'COCA_Academic_Range_Log_AW' 'COCA_Academic_Frequency_Log_AW'
+ 'COCA_Academic_Range_CW' 'COCA_Academic_Range_Log_CW'
+ 'COCA_Academic_Frequency_Log_CW' 'COCA_academic_bi_prop_10k'
+ 'COCA_academic_bi_prop_20k' 'COCA_academic_bi_prop_30k'
+ 'COCA_academic_bi_prop_40k' 'COCA_academic_bi_prop_60k'
+ 'COCA_academic_bi_prop_80k' 'COCA_academic_bi_prop_90k' 'Sem_D'
+ 'Sem_D_CW' 'aoe_inverse_linear_regression_slope']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>model_type</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>n_features</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>feature_names</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>all_cv_scores</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>cross_val_avg</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[ 0.03536338 -0.46093699 -0.07605985 -0.02084458 -0.03704305]</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.1119042172299718</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>[ 0.02648387 -0.65548138 -0.28192148  0.03915236 -0.02459906]</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.1792731376943867</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['news_av_lemma_freq_type' 'mag_av_lemma_freq_type'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[-0.00533754 -0.74281815 -0.21666715  0.04378948  0.01654537]</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.1808975971254647</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>['acad_av_lemma_freq_type' 'news_av_lemma_freq_type'
  'mag_av_lemma_freq_type' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
@@ -2414,7 +4836,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>-0.1524176801219601</v>
+        <v>-0.1524176801219462</v>
       </c>
     </row>
     <row r="6">
@@ -2442,7 +4864,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>-0.146707871142435</v>
+        <v>-0.1467078711424355</v>
       </c>
     </row>
     <row r="7">
@@ -2470,7 +4892,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>-0.1512716124640865</v>
+        <v>-0.1512716124640887</v>
       </c>
     </row>
     <row r="8">
@@ -2498,7 +4920,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>-0.1797419755360943</v>
+        <v>-0.1797419755360899</v>
       </c>
     </row>
     <row r="9">
@@ -2507,24 +4929,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type']</t>
+          <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
+ 'news_av_lemma_freq_log' 'news_av_lemma_freq_type'
+ 'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq_type']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[ 0.03536338 -0.46093699 -0.07605985 -0.02084458 -0.03704305]</t>
+          <t>[ 0.00744881 -0.98162949 -0.04165121 -0.08365465 -0.00267528]</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>-0.1119042172038957</v>
+        <v>-0.2204323648586551</v>
       </c>
     </row>
     <row r="10">
@@ -2533,25 +4958,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type'
- 'all_av_lemma_freq_type']</t>
+          <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
+ 'news_av_lemma_freq_log' 'news_av_lemma_freq_type'
+ 'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq' 'all_av_lemma_freq_type']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[ 0.02648387 -0.65548138 -0.28192148  0.03915236 -0.02459906]</t>
+          <t>[ 0.02155791 -1.24268898 -0.03678439 -0.07887897 -0.01269411]</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>-0.1792731376137038</v>
+        <v>-0.269897706568054</v>
       </c>
     </row>
     <row r="11">
@@ -2560,25 +4987,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>['news_av_lemma_freq_type' 'mag_av_lemma_freq_type'
- 'fic_av_lemma_freq_type' 'all_av_lemma_freq_type']</t>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[-0.00533754 -0.74281815 -0.21666715  0.04378948  0.01654537]</t>
+          <t>[ 0.01034902 -1.14589308 -0.09413063 -0.11380883 -0.02774367]</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>-0.1808975969595743</v>
+        <v>-0.2742454372746907</v>
       </c>
     </row>
     <row r="12">
@@ -2587,302 +5016,1116 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ridge</t>
+          <t>linear</t>
         </is>
       </c>
       <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>[-0.02759242 -1.21029888 -0.06583435 -0.1745543  -0.04576186]</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.3048083624721598</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[-0.02759242 -1.21029888 -0.06583435 -0.1745543  -0.04576186]</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.3048083624721688</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_stdev' 'acad_av_lemma_freq_log_stdev'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[ 0.00732239 -1.30190302 -0.06544468 -0.17138881 -0.03174276]</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.3126313749569693</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'acad_av_lemma_freq_stdev' 'fic_av_lemma_freq_stdev'
+ 'acad_av_lemma_freq_log_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[ 0.00732239 -1.30190302 -0.06544468 -0.17138881 -0.03174276]</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.312631374956969</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'acad_av_lemma_freq_stdev' 'fic_av_lemma_freq_stdev'
+ 'all_av_lemma_freq_log_stdev' 'acad_av_lemma_freq_log_stdev'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[-5.33773019e-04 -1.35364726e+00 -1.06427187e-01 -2.41044146e-01
+ -3.15274801e-02]</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.3466359700189094</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>linear</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'all_av_lemma_freq_stdev' 'acad_av_lemma_freq_stdev'
+ 'fic_av_lemma_freq_stdev' 'all_av_lemma_freq_log_stdev'
+ 'acad_av_lemma_freq_log_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[-5.33773019e-04 -1.35364726e+00 -1.06427187e-01 -2.41044146e-01
+ -3.15274801e-02]</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.3466359700189023</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[ 0.04732943 -0.45869838 -0.0728877   0.09240677  0.05794048]</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.06678187975023046</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>3</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[ 0.0483717  -0.46036443 -0.08851354  0.09387623  0.05925308]</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>-0.06947539161990202</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>4</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['news_av_lemma_freq_type' 'mag_av_lemma_freq_type'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[ 0.05042861 -0.45373167 -0.09209207  0.10355293  0.06339312]</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.0656898172309431</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>5</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>['acad_av_lemma_freq_type' 'news_av_lemma_freq_type'
  'mag_av_lemma_freq_type' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>[-0.00145498 -0.653148   -0.18445444  0.08078222 -0.00381319]</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.1524176801410134</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[ 0.04916553 -0.52076404 -0.15178108  0.10517506  0.04919762]</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.09380138344591749</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>6</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>['acad_av_lemma_freq_type' 'news_av_lemma_freq_type'
  'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>[ 0.01925801 -0.70279717 -0.11783234  0.09870628 -0.03087414]</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.1467078711400699</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[ 0.05994235 -0.50276936 -0.09268378  0.10777359  0.04562951]</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0764215374799824</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>7</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>['acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_type'
  'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>[-0.007086   -0.6800133  -0.1167397   0.08622346 -0.03874251]</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.1512716122515744</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>ridge</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>[ 0.06151858 -0.49938451 -0.08996206  0.10402613  0.02969435]</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.07882150196277245</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>8</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
  'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
  'fic_av_lemma_freq_type' 'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>[-0.00322398 -0.6780058  -0.10969504  0.08437639 -0.03492421]</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.1482945256229919</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>[ 0.08631586 -1.0483279  -0.07766763  0.03075748  0.04646219]</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1924920006567634</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>9</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
+ 'news_av_lemma_freq_log' 'news_av_lemma_freq_type'
+ 'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>[ 0.09724211 -1.04339507 -0.05459362  0.04063371  0.02858971]</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1863046324170652</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>10</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
+ 'news_av_lemma_freq_log' 'news_av_lemma_freq_type'
+ 'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq' 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>[ 0.09736632 -1.05109994 -0.06014572  0.04386298  0.02982423]</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.1880384252009248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>[ 0.09793716 -1.08909341 -0.05981184  0.04211278  0.0281474 ]</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.196141583560402</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>[ 0.06938414 -1.03481728 -0.02519465  0.03440098  0.01813156]</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1876190503201342</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>13</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>[ 0.06826781 -1.03319014 -0.02402632  0.03260332  0.01719166]</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.187830732900258</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_stdev' 'acad_av_lemma_freq_log_stdev'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>[ 0.07074628 -1.03125382 -0.02610046  0.03053677  0.018504  ]</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.1875134461118324</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>15</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'acad_av_lemma_freq_stdev' 'fic_av_lemma_freq_stdev'
+ 'acad_av_lemma_freq_log_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>[ 0.0718021  -1.03076261 -0.02722033  0.02956863  0.019029  ]</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1875166419809163</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>16</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'acad_av_lemma_freq_stdev' 'fic_av_lemma_freq_stdev'
+ 'all_av_lemma_freq_log_stdev' 'acad_av_lemma_freq_log_stdev'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>[ 0.07185037 -1.03123205 -0.03078163  0.02503809  0.01901737]</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1892215698630428</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ridge</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>17</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'all_av_lemma_freq_stdev' 'acad_av_lemma_freq_stdev'
+ 'fic_av_lemma_freq_stdev' 'all_av_lemma_freq_log_stdev'
+ 'acad_av_lemma_freq_log_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>[ 0.07188093 -1.0315314  -0.03304623  0.0220819   0.01900805]</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.1903213492123157</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>2</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>[ 0.03741015 -0.4608668  -0.07502957 -0.01203764 -0.02906352]</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.1079174754043372</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>3</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>['news_av_lemma_freq_type' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[ 0.02870278 -0.57154278 -0.23357659  0.01496191  0.00095238]</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.1521004590679892</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>4</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>['news_av_lemma_freq_type' 'mag_av_lemma_freq_type'
  'fic_av_lemma_freq_type' 'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>[ 0.04568784 -0.59176461 -0.23404958  0.11384403  0.00126333]</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.1330037979006424</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>5</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>['acad_av_lemma_freq_type' 'news_av_lemma_freq_type'
  'mag_av_lemma_freq_type' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>[ 0.04868674 -0.7240131  -0.2708004   0.10728041 -0.05610032]</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.1789893359278635</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>6</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>['acad_av_lemma_freq_type' 'news_av_lemma_freq_type'
  'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>[ 0.06580568 -0.75908494 -0.20756081  0.12290584 -0.08223773]</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.1720343923203601</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>7</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>['acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_type'
  'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
  'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>[ 0.06490922 -0.75785605 -0.20551538  0.11614561 -0.08207355]</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.1728780297277611</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>lasso</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>8</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
  'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
  'fic_av_lemma_freq_type' 'all_av_lemma_freq_type']</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>[ 0.06490922 -0.75785605 -0.20551538  0.11614561 -0.08207355]</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.1728780297277607</v>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>9</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
+ 'news_av_lemma_freq_log' 'news_av_lemma_freq_type'
+ 'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>10</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'acad_av_lemma_freq_type' 'news_av_lemma_freq'
+ 'news_av_lemma_freq_log' 'news_av_lemma_freq_type'
+ 'mag_av_lemma_freq_type' 'fic_av_lemma_freq' 'fic_av_lemma_freq_type'
+ 'all_av_lemma_freq' 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>11</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type']</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>12</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>13</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>14</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'fic_av_lemma_freq_stdev' 'acad_av_lemma_freq_log_stdev'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>15</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'acad_av_lemma_freq_stdev' 'fic_av_lemma_freq_stdev'
+ 'acad_av_lemma_freq_log_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'acad_av_lemma_freq_stdev' 'fic_av_lemma_freq_stdev'
+ 'all_av_lemma_freq_log_stdev' 'acad_av_lemma_freq_log_stdev'
+ 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.07584214371795736</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>lasso</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>17</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>['advmod_pobj_deps_struct' 'advmod_pobj_deps_NN_struct'
+ 'acad_av_lemma_freq_type' 'news_av_lemma_freq' 'news_av_lemma_freq_log'
+ 'news_av_lemma_freq_type' 'mag_av_lemma_freq_type' 'fic_av_lemma_freq'
+ 'fic_av_lemma_freq_type' 'all_av_lemma_freq' 'all_av_lemma_freq_type'
+ 'all_av_lemma_freq_stdev' 'acad_av_lemma_freq_stdev'
+ 'fic_av_lemma_freq_stdev' 'all_av_lemma_freq_log_stdev'
+ 'acad_av_lemma_freq_log_stdev' 'fic_av_lemma_freq_log_stdev']</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>[-0.01579472 -0.19317977 -0.14049095 -0.00876836 -0.02097691]</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.07584214371795736</v>
       </c>
     </row>
   </sheetData>
